--- a/xlsx/纳瓦萨岛_intext.xlsx
+++ b/xlsx/纳瓦萨岛_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_纳瓦萨岛</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_纳瓦萨岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Guano_Islands_Act</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A5%A7%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>克里奧爾語</t>
+    <t>克里奥尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6</t>
   </si>
   <si>
-    <t>島</t>
+    <t>岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%BA%A6</t>
   </si>
   <si>
-    <t>經度</t>
+    <t>经度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AF%E5%BA%A6</t>
   </si>
   <si>
-    <t>緯度</t>
+    <t>纬度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BD%A2</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -461,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -527,25 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -791,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -809,25 +809,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -839,19 +839,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -869,25 +869,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
